--- a/my1stProject/chip_example/chip_example_design_arch.xlsx
+++ b/my1stProject/chip_example/chip_example_design_arch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -2686,7 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/my1stProject/chip_example/chip_example_design_arch.xlsx
+++ b/my1stProject/chip_example/chip_example_design_arch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="398">
   <si>
     <t>Target</t>
   </si>
@@ -1468,12 +1468,18 @@
   <si>
     <t>B2_idsinst</t>
   </si>
+  <si>
+    <t>..\block1\block1.xlsx</t>
+  </si>
+  <si>
+    <t>..\block2\block2.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,6 +1620,14 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2031,10 +2045,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2239,6 +2254,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2287,9 +2303,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2596,25 +2615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -2687,7 +2706,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,20 +2725,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2774,7 +2793,9 @@
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="109" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81"/>
@@ -2812,7 +2833,9 @@
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="109" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
@@ -2868,8 +2891,12 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2896,20 +2923,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -3017,10 +3044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="75" t="s">
         <v>277</v>
       </c>
@@ -3031,8 +3058,8 @@
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -3157,14 +3184,14 @@
       <c r="A12" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="92" t="s">
         <v>380</v>
       </c>
       <c r="C12" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="92" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3172,14 +3199,14 @@
       <c r="A13" t="s">
         <v>360</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="92" t="s">
         <v>381</v>
       </c>
       <c r="C13" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="92" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3187,14 +3214,14 @@
       <c r="A14" t="s">
         <v>360</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="92" t="s">
         <v>382</v>
       </c>
       <c r="C14" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="92" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3202,14 +3229,14 @@
       <c r="A15" t="s">
         <v>360</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="92" t="s">
         <v>383</v>
       </c>
       <c r="C15" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="92" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3217,14 +3244,14 @@
       <c r="A16" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="92" t="s">
         <v>384</v>
       </c>
       <c r="C16" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="92" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3232,14 +3259,14 @@
       <c r="A17" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="92" t="s">
         <v>385</v>
       </c>
       <c r="C17" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="92" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3247,14 +3274,14 @@
       <c r="A18" t="s">
         <v>360</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="92" t="s">
         <v>386</v>
       </c>
       <c r="C18" t="str">
         <f>Instances!A7</f>
         <v>B2_idsinst</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="92" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3322,8 +3349,8 @@
       <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="100"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
@@ -3335,8 +3362,8 @@
       <c r="C6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="100"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
@@ -3348,8 +3375,8 @@
       <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
@@ -3362,8 +3389,8 @@
       <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="100"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="32" t="s">
         <v>29</v>
       </c>
@@ -3376,8 +3403,8 @@
       <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="32" t="s">
         <v>31</v>
       </c>
@@ -3390,8 +3417,8 @@
       <c r="C10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="100"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="32" t="s">
         <v>34</v>
       </c>
@@ -3404,8 +3431,8 @@
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="37" t="s">
         <v>37</v>
       </c>
@@ -3418,8 +3445,8 @@
       <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="37" t="s">
         <v>40</v>
       </c>
@@ -3431,8 +3458,8 @@
       <c r="C13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="100"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="32" t="s">
         <v>42</v>
       </c>
@@ -3444,8 +3471,8 @@
       <c r="C14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="32" t="s">
         <v>45</v>
       </c>
@@ -3457,8 +3484,8 @@
       <c r="C15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="100"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="32" t="s">
         <v>48</v>
       </c>
@@ -3470,8 +3497,8 @@
       <c r="C16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="100"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="42" t="s">
         <v>51</v>
       </c>
@@ -3484,8 +3511,8 @@
       <c r="C17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="100"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="42" t="s">
         <v>54</v>
       </c>
@@ -3498,8 +3525,8 @@
       <c r="C18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="100"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="42" t="s">
         <v>57</v>
       </c>
@@ -3512,8 +3539,8 @@
       <c r="C19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="100"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,8 +3551,8 @@
       <c r="C20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="100"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,14 +3562,14 @@
       <c r="C21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="100"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="101"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="100"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
@@ -3551,8 +3578,8 @@
       <c r="C23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="100"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="42" t="s">
         <v>65</v>
       </c>
@@ -3565,8 +3592,8 @@
       <c r="C24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="100"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
@@ -3578,8 +3605,8 @@
       <c r="C25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="100"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="42" t="s">
         <v>71</v>
       </c>
@@ -3592,8 +3619,8 @@
       <c r="C26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="42" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +3635,7 @@
       <c r="D27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="100"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="42" t="s">
         <v>77</v>
       </c>
@@ -3621,8 +3648,8 @@
       <c r="C28" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="100"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3633,8 +3660,8 @@
       <c r="C29" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="100"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="42" t="s">
         <v>82</v>
       </c>
@@ -3647,8 +3674,8 @@
       <c r="C30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="100"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,8 +3686,8 @@
       <c r="C31" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="100"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="42" t="s">
         <v>86</v>
       </c>
@@ -3673,8 +3700,8 @@
       <c r="C32" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="100"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,8 +3712,8 @@
       <c r="C33" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="100"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,8 +3724,8 @@
       <c r="C34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="100"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,8 +3736,8 @@
       <c r="C35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="100"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3720,15 +3747,15 @@
       <c r="C36" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="100"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="100"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,8 +3765,8 @@
       <c r="C38" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="100"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="42" t="s">
         <v>98</v>
       </c>
@@ -3751,8 +3778,8 @@
       <c r="C39" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="100"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="42" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +3795,7 @@
       <c r="D40" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="100"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="42" t="s">
         <v>103</v>
       </c>
@@ -3783,7 +3810,7 @@
       <c r="D41" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="100"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="42" t="s">
         <v>105</v>
       </c>
@@ -3799,7 +3826,7 @@
       <c r="D42" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="100"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="42" t="s">
         <v>108</v>
       </c>
@@ -3811,8 +3838,8 @@
       <c r="C43" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="100"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="42" t="s">
         <v>110</v>
       </c>
@@ -3824,8 +3851,8 @@
       <c r="C44" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="42" t="s">
         <v>113</v>
       </c>
@@ -3837,15 +3864,15 @@
       <c r="C45" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="39"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="100"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,8 +3882,8 @@
       <c r="C47" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="100"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="42" t="s">
         <v>118</v>
       </c>
@@ -3868,14 +3895,14 @@
       <c r="C48" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="100"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="101"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="52"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="100"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="101"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
@@ -3884,8 +3911,8 @@
       <c r="C50" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="100"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="42" t="s">
         <v>123</v>
       </c>
@@ -3897,8 +3924,8 @@
       <c r="C51" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="100"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="42" t="s">
         <v>126</v>
       </c>
@@ -3910,8 +3937,8 @@
       <c r="C52" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="100"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="101"/>
       <c r="F52" s="42" t="s">
         <v>129</v>
       </c>
@@ -3923,8 +3950,8 @@
       <c r="C53" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="100"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="42" t="s">
         <v>132</v>
       </c>
@@ -3936,8 +3963,8 @@
       <c r="C54" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="100"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="101"/>
       <c r="F54" s="42" t="s">
         <v>135</v>
       </c>
@@ -3949,8 +3976,8 @@
       <c r="C55" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="105"/>
-      <c r="E55" s="100"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="42" t="s">
         <v>138</v>
       </c>
@@ -3962,8 +3989,8 @@
       <c r="C56" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="100"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="42" t="s">
         <v>141</v>
       </c>
@@ -3971,8 +3998,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="39"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="100"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3983,8 +4010,8 @@
       <c r="C58" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="100"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="101"/>
       <c r="F58" s="42" t="s">
         <v>143</v>
       </c>
@@ -3997,8 +4024,8 @@
       <c r="C59" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="105"/>
-      <c r="E59" s="100"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="101"/>
       <c r="F59" s="42" t="s">
         <v>146</v>
       </c>
@@ -4011,8 +4038,8 @@
       <c r="C60" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="100"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="101"/>
       <c r="F60" s="42" t="s">
         <v>149</v>
       </c>
@@ -4025,8 +4052,8 @@
       <c r="C61" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="100"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="101"/>
       <c r="F61" s="42" t="s">
         <v>152</v>
       </c>
@@ -4039,8 +4066,8 @@
       <c r="C62" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="100"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="101"/>
       <c r="F62" s="42" t="s">
         <v>152</v>
       </c>
@@ -4053,8 +4080,8 @@
       <c r="C63" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="105"/>
-      <c r="E63" s="100"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="101"/>
       <c r="F63" s="42" t="s">
         <v>157</v>
       </c>
@@ -4067,8 +4094,8 @@
       <c r="C64" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="105"/>
-      <c r="E64" s="100"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="101"/>
       <c r="F64" s="42" t="s">
         <v>159</v>
       </c>
@@ -4081,8 +4108,8 @@
       <c r="C65" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="105"/>
-      <c r="E65" s="100"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="42" t="s">
         <v>162</v>
       </c>
@@ -4095,8 +4122,8 @@
       <c r="C66" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="105"/>
-      <c r="E66" s="100"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="101"/>
       <c r="F66" s="42" t="s">
         <v>165</v>
       </c>
@@ -4109,8 +4136,8 @@
       <c r="C67" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="105"/>
-      <c r="E67" s="100"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="42" t="s">
         <v>168</v>
       </c>
@@ -4122,8 +4149,8 @@
       <c r="C68" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="105"/>
-      <c r="E68" s="100"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="42" t="s">
         <v>171</v>
       </c>
@@ -5079,7 +5106,7 @@
       <c r="F160" s="42"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="106" t="s">
+      <c r="A162" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="19" t="s">
@@ -5099,7 +5126,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="107"/>
+      <c r="A163" s="108"/>
       <c r="B163" s="30" t="s">
         <v>251</v>
       </c>
@@ -5113,7 +5140,7 @@
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="107"/>
+      <c r="A164" s="108"/>
       <c r="B164" s="39" t="s">
         <v>254</v>
       </c>
@@ -5127,7 +5154,7 @@
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="107"/>
+      <c r="A165" s="108"/>
       <c r="B165" s="30" t="s">
         <v>256</v>
       </c>
@@ -5141,7 +5168,7 @@
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="107"/>
+      <c r="A166" s="108"/>
       <c r="B166" s="30" t="s">
         <v>258</v>
       </c>

--- a/my1stProject/chip_example/chip_example_design_arch.xlsx
+++ b/my1stProject/chip_example/chip_example_design_arch.xlsx
@@ -2255,6 +2255,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2302,9 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2615,25 +2615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,20 +2725,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2793,7 +2793,7 @@
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="10" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="93" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2892,11 +2892,10 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J7" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2923,20 +2922,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -3044,10 +3043,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="75" t="s">
         <v>277</v>
       </c>
@@ -3058,8 +3057,8 @@
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -3349,8 +3348,8 @@
       <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="101"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
@@ -3362,8 +3361,8 @@
       <c r="C6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="101"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
@@ -3375,8 +3374,8 @@
       <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
@@ -3389,8 +3388,8 @@
       <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="101"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="32" t="s">
         <v>29</v>
       </c>
@@ -3403,8 +3402,8 @@
       <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="32" t="s">
         <v>31</v>
       </c>
@@ -3417,8 +3416,8 @@
       <c r="C10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="101"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="32" t="s">
         <v>34</v>
       </c>
@@ -3431,8 +3430,8 @@
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="101"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="37" t="s">
         <v>37</v>
       </c>
@@ -3445,8 +3444,8 @@
       <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="101"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="37" t="s">
         <v>40</v>
       </c>
@@ -3458,8 +3457,8 @@
       <c r="C13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="101"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="32" t="s">
         <v>42</v>
       </c>
@@ -3471,8 +3470,8 @@
       <c r="C14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="101"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="32" t="s">
         <v>45</v>
       </c>
@@ -3484,8 +3483,8 @@
       <c r="C15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="101"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="32" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3496,8 @@
       <c r="C16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="101"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="42" t="s">
         <v>51</v>
       </c>
@@ -3511,8 +3510,8 @@
       <c r="C17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="42" t="s">
         <v>54</v>
       </c>
@@ -3525,8 +3524,8 @@
       <c r="C18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="101"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="42" t="s">
         <v>57</v>
       </c>
@@ -3539,8 +3538,8 @@
       <c r="C19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="101"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,8 +3550,8 @@
       <c r="C20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="101"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,14 +3561,14 @@
       <c r="C21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="101"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="101"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="102"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
@@ -3578,8 +3577,8 @@
       <c r="C23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="102"/>
       <c r="F23" s="42" t="s">
         <v>65</v>
       </c>
@@ -3592,8 +3591,8 @@
       <c r="C24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="101"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
@@ -3605,8 +3604,8 @@
       <c r="C25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="101"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="42" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +3618,8 @@
       <c r="C26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="42" t="s">
         <v>74</v>
       </c>
@@ -3635,7 +3634,7 @@
       <c r="D27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="101"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="42" t="s">
         <v>77</v>
       </c>
@@ -3648,8 +3647,8 @@
       <c r="C28" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="101"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3660,8 +3659,8 @@
       <c r="C29" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="101"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="42" t="s">
         <v>82</v>
       </c>
@@ -3674,8 +3673,8 @@
       <c r="C30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="101"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,8 +3685,8 @@
       <c r="C31" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="101"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="102"/>
       <c r="F31" s="42" t="s">
         <v>86</v>
       </c>
@@ -3700,8 +3699,8 @@
       <c r="C32" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="101"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,8 +3711,8 @@
       <c r="C33" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="101"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,8 +3723,8 @@
       <c r="C34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="101"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,8 +3735,8 @@
       <c r="C35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="101"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,15 +3746,15 @@
       <c r="C36" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="101"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="101"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,8 +3764,8 @@
       <c r="C38" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="101"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="102"/>
       <c r="F38" s="42" t="s">
         <v>98</v>
       </c>
@@ -3778,8 +3777,8 @@
       <c r="C39" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="101"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="102"/>
       <c r="F39" s="42" t="s">
         <v>100</v>
       </c>
@@ -3795,7 +3794,7 @@
       <c r="D40" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="101"/>
+      <c r="E40" s="102"/>
       <c r="F40" s="42" t="s">
         <v>103</v>
       </c>
@@ -3810,7 +3809,7 @@
       <c r="D41" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="101"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="42" t="s">
         <v>105</v>
       </c>
@@ -3826,7 +3825,7 @@
       <c r="D42" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="101"/>
+      <c r="E42" s="102"/>
       <c r="F42" s="42" t="s">
         <v>108</v>
       </c>
@@ -3838,8 +3837,8 @@
       <c r="C43" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="101"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="102"/>
       <c r="F43" s="42" t="s">
         <v>110</v>
       </c>
@@ -3851,8 +3850,8 @@
       <c r="C44" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="101"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="102"/>
       <c r="F44" s="42" t="s">
         <v>113</v>
       </c>
@@ -3864,15 +3863,15 @@
       <c r="C45" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="101"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="39"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="101"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="102"/>
       <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3882,8 +3881,8 @@
       <c r="C47" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="101"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="102"/>
       <c r="F47" s="42" t="s">
         <v>118</v>
       </c>
@@ -3895,14 +3894,14 @@
       <c r="C48" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="101"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="102"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="52"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="101"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="102"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
@@ -3911,8 +3910,8 @@
       <c r="C50" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="101"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="102"/>
       <c r="F50" s="42" t="s">
         <v>123</v>
       </c>
@@ -3924,8 +3923,8 @@
       <c r="C51" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="101"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="102"/>
       <c r="F51" s="42" t="s">
         <v>126</v>
       </c>
@@ -3937,8 +3936,8 @@
       <c r="C52" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="101"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="102"/>
       <c r="F52" s="42" t="s">
         <v>129</v>
       </c>
@@ -3950,8 +3949,8 @@
       <c r="C53" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="101"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="102"/>
       <c r="F53" s="42" t="s">
         <v>132</v>
       </c>
@@ -3963,8 +3962,8 @@
       <c r="C54" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="106"/>
-      <c r="E54" s="101"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="42" t="s">
         <v>135</v>
       </c>
@@ -3976,8 +3975,8 @@
       <c r="C55" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="101"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="42" t="s">
         <v>138</v>
       </c>
@@ -3989,8 +3988,8 @@
       <c r="C56" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="106"/>
-      <c r="E56" s="101"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="102"/>
       <c r="F56" s="42" t="s">
         <v>141</v>
       </c>
@@ -3998,8 +3997,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="39"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="101"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="102"/>
       <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,8 +4009,8 @@
       <c r="C58" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="106"/>
-      <c r="E58" s="101"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="102"/>
       <c r="F58" s="42" t="s">
         <v>143</v>
       </c>
@@ -4024,8 +4023,8 @@
       <c r="C59" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="106"/>
-      <c r="E59" s="101"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="102"/>
       <c r="F59" s="42" t="s">
         <v>146</v>
       </c>
@@ -4038,8 +4037,8 @@
       <c r="C60" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="106"/>
-      <c r="E60" s="101"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="42" t="s">
         <v>149</v>
       </c>
@@ -4052,8 +4051,8 @@
       <c r="C61" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="106"/>
-      <c r="E61" s="101"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="42" t="s">
         <v>152</v>
       </c>
@@ -4066,8 +4065,8 @@
       <c r="C62" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="106"/>
-      <c r="E62" s="101"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="102"/>
       <c r="F62" s="42" t="s">
         <v>152</v>
       </c>
@@ -4080,8 +4079,8 @@
       <c r="C63" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="106"/>
-      <c r="E63" s="101"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="102"/>
       <c r="F63" s="42" t="s">
         <v>157</v>
       </c>
@@ -4094,8 +4093,8 @@
       <c r="C64" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="106"/>
-      <c r="E64" s="101"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="42" t="s">
         <v>159</v>
       </c>
@@ -4108,8 +4107,8 @@
       <c r="C65" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="106"/>
-      <c r="E65" s="101"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="102"/>
       <c r="F65" s="42" t="s">
         <v>162</v>
       </c>
@@ -4122,8 +4121,8 @@
       <c r="C66" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="106"/>
-      <c r="E66" s="101"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="42" t="s">
         <v>165</v>
       </c>
@@ -4136,8 +4135,8 @@
       <c r="C67" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="106"/>
-      <c r="E67" s="101"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="42" t="s">
         <v>168</v>
       </c>
@@ -4149,8 +4148,8 @@
       <c r="C68" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="106"/>
-      <c r="E68" s="101"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="102"/>
       <c r="F68" s="42" t="s">
         <v>171</v>
       </c>
@@ -5106,7 +5105,7 @@
       <c r="F160" s="42"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="107" t="s">
+      <c r="A162" s="108" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="19" t="s">
@@ -5126,7 +5125,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="108"/>
+      <c r="A163" s="109"/>
       <c r="B163" s="30" t="s">
         <v>251</v>
       </c>
@@ -5140,7 +5139,7 @@
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="108"/>
+      <c r="A164" s="109"/>
       <c r="B164" s="39" t="s">
         <v>254</v>
       </c>
@@ -5154,7 +5153,7 @@
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="108"/>
+      <c r="A165" s="109"/>
       <c r="B165" s="30" t="s">
         <v>256</v>
       </c>
@@ -5168,7 +5167,7 @@
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="108"/>
+      <c r="A166" s="109"/>
       <c r="B166" s="30" t="s">
         <v>258</v>
       </c>

--- a/my1stProject/chip_example/chip_example_design_arch.xlsx
+++ b/my1stProject/chip_example/chip_example_design_arch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="397">
   <si>
     <t>Target</t>
   </si>
@@ -1316,9 +1316,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>i_Bus</t>
   </si>
   <si>
@@ -1373,12 +1370,6 @@
     <t>example</t>
   </si>
   <si>
-    <t>comp1</t>
-  </si>
-  <si>
-    <t>comp2</t>
-  </si>
-  <si>
     <t>block_offset</t>
   </si>
   <si>
@@ -1463,23 +1454,29 @@
     <t>Reg2_F_r[15:0]</t>
   </si>
   <si>
-    <t>B1_idsinst</t>
-  </si>
-  <si>
-    <t>B2_idsinst</t>
-  </si>
-  <si>
     <t>..\block1\block1.xlsx</t>
   </si>
   <si>
     <t>..\block2\block2.xlsx</t>
+  </si>
+  <si>
+    <t>Block1</t>
+  </si>
+  <si>
+    <t>block2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,14 +1617,6 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2045,11 +2034,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2255,9 +2243,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2307,8 +2292,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2615,25 +2599,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -2643,7 +2627,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -2654,7 +2638,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -2665,7 +2649,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -2705,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2725,20 +2709,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2775,16 +2759,16 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B5" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>363</v>
-      </c>
       <c r="D5" s="81" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="E5" s="81">
         <v>1</v>
@@ -2794,7 +2778,7 @@
       <c r="H5" s="81"/>
       <c r="I5" s="13"/>
       <c r="J5" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2805,7 +2789,7 @@
       <c r="E6" s="81"/>
       <c r="F6" s="13"/>
       <c r="G6" s="81" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H6" s="81">
         <v>0</v>
@@ -2818,13 +2802,13 @@
         <v>395</v>
       </c>
       <c r="B7" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>363</v>
-      </c>
       <c r="D7" s="81" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="E7" s="81">
         <v>1</v>
@@ -2833,8 +2817,8 @@
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="93" t="s">
-        <v>397</v>
+      <c r="J7" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2845,7 +2829,7 @@
       <c r="E8" s="83"/>
       <c r="F8" s="85"/>
       <c r="G8" s="82" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H8" s="87">
         <v>8</v>
@@ -2891,11 +2875,8 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2904,7 +2885,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,27 +2903,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2968,32 +2949,32 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C7" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,7 +3010,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,10 +3024,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="75" t="s">
         <v>277</v>
       </c>
@@ -3057,8 +3038,8 @@
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -3090,198 +3071,198 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C7" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C8" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C9" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C10" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C11" t="str">
         <f>Instances!A5</f>
-        <v>B1_idsinst</v>
+        <v>B1</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C12" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C13" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C14" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C15" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C16" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C17" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C18" t="str">
         <f>Instances!A7</f>
-        <v>B2_idsinst</v>
+        <v>B2</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F179"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -3348,8 +3329,8 @@
       <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="102"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
@@ -3361,8 +3342,8 @@
       <c r="C6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="102"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
@@ -3374,8 +3355,8 @@
       <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
@@ -3388,8 +3369,8 @@
       <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="32" t="s">
         <v>29</v>
       </c>
@@ -3402,8 +3383,8 @@
       <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="32" t="s">
         <v>31</v>
       </c>
@@ -3416,8 +3397,8 @@
       <c r="C10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="32" t="s">
         <v>34</v>
       </c>
@@ -3430,8 +3411,8 @@
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="37" t="s">
         <v>37</v>
       </c>
@@ -3444,8 +3425,8 @@
       <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="102"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="37" t="s">
         <v>40</v>
       </c>
@@ -3457,8 +3438,8 @@
       <c r="C13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="32" t="s">
         <v>42</v>
       </c>
@@ -3470,8 +3451,8 @@
       <c r="C14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="32" t="s">
         <v>45</v>
       </c>
@@ -3483,8 +3464,8 @@
       <c r="C15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="32" t="s">
         <v>48</v>
       </c>
@@ -3496,8 +3477,8 @@
       <c r="C16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="42" t="s">
         <v>51</v>
       </c>
@@ -3510,8 +3491,8 @@
       <c r="C17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="42" t="s">
         <v>54</v>
       </c>
@@ -3524,8 +3505,8 @@
       <c r="C18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="42" t="s">
         <v>57</v>
       </c>
@@ -3538,8 +3519,8 @@
       <c r="C19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3550,8 +3531,8 @@
       <c r="C20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,14 +3542,14 @@
       <c r="C21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="101"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
@@ -3577,8 +3558,8 @@
       <c r="C23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="102"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="42" t="s">
         <v>65</v>
       </c>
@@ -3591,8 +3572,8 @@
       <c r="C24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
@@ -3604,8 +3585,8 @@
       <c r="C25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="102"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="42" t="s">
         <v>71</v>
       </c>
@@ -3618,8 +3599,8 @@
       <c r="C26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="42" t="s">
         <v>74</v>
       </c>
@@ -3634,7 +3615,7 @@
       <c r="D27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="102"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="42" t="s">
         <v>77</v>
       </c>
@@ -3647,8 +3628,8 @@
       <c r="C28" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,8 +3640,8 @@
       <c r="C29" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="42" t="s">
         <v>82</v>
       </c>
@@ -3673,8 +3654,8 @@
       <c r="C30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,8 +3666,8 @@
       <c r="C31" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="42" t="s">
         <v>86</v>
       </c>
@@ -3699,8 +3680,8 @@
       <c r="C32" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3711,8 +3692,8 @@
       <c r="C33" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,8 +3704,8 @@
       <c r="C34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,8 +3716,8 @@
       <c r="C35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3746,15 +3727,15 @@
       <c r="C36" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="102"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,8 +3745,8 @@
       <c r="C38" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="102"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="42" t="s">
         <v>98</v>
       </c>
@@ -3777,8 +3758,8 @@
       <c r="C39" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="102"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="42" t="s">
         <v>100</v>
       </c>
@@ -3794,7 +3775,7 @@
       <c r="D40" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="102"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="42" t="s">
         <v>103</v>
       </c>
@@ -3809,7 +3790,7 @@
       <c r="D41" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="102"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="42" t="s">
         <v>105</v>
       </c>
@@ -3825,7 +3806,7 @@
       <c r="D42" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="102"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="42" t="s">
         <v>108</v>
       </c>
@@ -3837,8 +3818,8 @@
       <c r="C43" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="102"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="42" t="s">
         <v>110</v>
       </c>
@@ -3850,8 +3831,8 @@
       <c r="C44" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="102"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="42" t="s">
         <v>113</v>
       </c>
@@ -3863,15 +3844,15 @@
       <c r="C45" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="102"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="39"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="102"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3881,8 +3862,8 @@
       <c r="C47" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="102"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="42" t="s">
         <v>118</v>
       </c>
@@ -3894,14 +3875,14 @@
       <c r="C48" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="102"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="101"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="52"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="102"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="101"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
@@ -3910,8 +3891,8 @@
       <c r="C50" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="107"/>
-      <c r="E50" s="102"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="42" t="s">
         <v>123</v>
       </c>
@@ -3923,8 +3904,8 @@
       <c r="C51" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="102"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="42" t="s">
         <v>126</v>
       </c>
@@ -3936,8 +3917,8 @@
       <c r="C52" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="102"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="101"/>
       <c r="F52" s="42" t="s">
         <v>129</v>
       </c>
@@ -3949,8 +3930,8 @@
       <c r="C53" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="107"/>
-      <c r="E53" s="102"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="42" t="s">
         <v>132</v>
       </c>
@@ -3962,8 +3943,8 @@
       <c r="C54" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="102"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="101"/>
       <c r="F54" s="42" t="s">
         <v>135</v>
       </c>
@@ -3975,8 +3956,8 @@
       <c r="C55" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="107"/>
-      <c r="E55" s="102"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="42" t="s">
         <v>138</v>
       </c>
@@ -3988,8 +3969,8 @@
       <c r="C56" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="102"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="42" t="s">
         <v>141</v>
       </c>
@@ -3997,8 +3978,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="39"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="102"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,8 +3990,8 @@
       <c r="C58" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="107"/>
-      <c r="E58" s="102"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="101"/>
       <c r="F58" s="42" t="s">
         <v>143</v>
       </c>
@@ -4023,8 +4004,8 @@
       <c r="C59" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="102"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="101"/>
       <c r="F59" s="42" t="s">
         <v>146</v>
       </c>
@@ -4037,8 +4018,8 @@
       <c r="C60" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="102"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="101"/>
       <c r="F60" s="42" t="s">
         <v>149</v>
       </c>
@@ -4051,8 +4032,8 @@
       <c r="C61" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="107"/>
-      <c r="E61" s="102"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="101"/>
       <c r="F61" s="42" t="s">
         <v>152</v>
       </c>
@@ -4065,8 +4046,8 @@
       <c r="C62" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="102"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="101"/>
       <c r="F62" s="42" t="s">
         <v>152</v>
       </c>
@@ -4079,8 +4060,8 @@
       <c r="C63" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="107"/>
-      <c r="E63" s="102"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="101"/>
       <c r="F63" s="42" t="s">
         <v>157</v>
       </c>
@@ -4093,8 +4074,8 @@
       <c r="C64" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="107"/>
-      <c r="E64" s="102"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="101"/>
       <c r="F64" s="42" t="s">
         <v>159</v>
       </c>
@@ -4107,8 +4088,8 @@
       <c r="C65" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="102"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="42" t="s">
         <v>162</v>
       </c>
@@ -4121,8 +4102,8 @@
       <c r="C66" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="107"/>
-      <c r="E66" s="102"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="101"/>
       <c r="F66" s="42" t="s">
         <v>165</v>
       </c>
@@ -4135,8 +4116,8 @@
       <c r="C67" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="107"/>
-      <c r="E67" s="102"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="42" t="s">
         <v>168</v>
       </c>
@@ -4148,8 +4129,8 @@
       <c r="C68" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="107"/>
-      <c r="E68" s="102"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="42" t="s">
         <v>171</v>
       </c>
@@ -4811,7 +4792,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="59" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C131" s="60" t="s">
         <v>288</v>
@@ -4857,7 +4838,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B136" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C136" s="60" t="s">
         <v>291</v>
@@ -4879,7 +4860,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C138" s="60" t="s">
         <v>294</v>
@@ -4890,7 +4871,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C139" s="60" t="s">
         <v>296</v>
@@ -4901,7 +4882,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C140" s="60" t="s">
         <v>298</v>
@@ -4929,7 +4910,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C143" s="60" t="s">
         <v>300</v>
@@ -4940,7 +4921,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C144" s="60" t="s">
         <v>302</v>
@@ -4962,7 +4943,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C146" s="60" t="s">
         <v>306</v>
@@ -4973,7 +4954,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C147" s="60" t="s">
         <v>308</v>
@@ -4984,7 +4965,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C148" s="60" t="s">
         <v>310</v>
@@ -5005,7 +4986,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C150" s="60" t="s">
         <v>240</v>
@@ -5105,7 +5086,7 @@
       <c r="F160" s="42"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="108" t="s">
+      <c r="A162" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="19" t="s">
@@ -5125,7 +5106,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="109"/>
+      <c r="A163" s="108"/>
       <c r="B163" s="30" t="s">
         <v>251</v>
       </c>
@@ -5139,7 +5120,7 @@
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="109"/>
+      <c r="A164" s="108"/>
       <c r="B164" s="39" t="s">
         <v>254</v>
       </c>
@@ -5153,7 +5134,7 @@
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="109"/>
+      <c r="A165" s="108"/>
       <c r="B165" s="30" t="s">
         <v>256</v>
       </c>
@@ -5167,7 +5148,7 @@
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="109"/>
+      <c r="A166" s="108"/>
       <c r="B166" s="30" t="s">
         <v>258</v>
       </c>

--- a/my1stProject/chip_example/chip_example_design_arch.xlsx
+++ b/my1stProject/chip_example/chip_example_design_arch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="401">
   <si>
     <t>Target</t>
   </si>
@@ -1470,6 +1470,18 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>amba_widget1</t>
+  </si>
+  <si>
+    <t>amba_widget2</t>
+  </si>
+  <si>
+    <t>hclk</t>
+  </si>
+  <si>
+    <t>hresetn</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2033,11 +2045,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2243,6 +2266,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2599,25 +2623,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -2709,20 +2733,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,7 +2909,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,20 +2927,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -2952,7 +2976,7 @@
         <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
@@ -2967,7 +2991,7 @@
         <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="C7" t="str">
         <f>Instances!A7</f>
@@ -3007,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,10 +3048,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="75" t="s">
         <v>277</v>
       </c>
@@ -3038,8 +3062,8 @@
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -3263,6 +3287,62 @@
       </c>
       <c r="D18" s="92" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -3329,8 +3409,8 @@
       <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="101"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
@@ -3342,8 +3422,8 @@
       <c r="C6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="101"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
@@ -3355,8 +3435,8 @@
       <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
@@ -3369,8 +3449,8 @@
       <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="101"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="32" t="s">
         <v>29</v>
       </c>
@@ -3383,8 +3463,8 @@
       <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="32" t="s">
         <v>31</v>
       </c>
@@ -3397,8 +3477,8 @@
       <c r="C10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="101"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="32" t="s">
         <v>34</v>
       </c>
@@ -3411,8 +3491,8 @@
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="101"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="37" t="s">
         <v>37</v>
       </c>
@@ -3425,8 +3505,8 @@
       <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="101"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="37" t="s">
         <v>40</v>
       </c>
@@ -3438,8 +3518,8 @@
       <c r="C13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="101"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="32" t="s">
         <v>42</v>
       </c>
@@ -3451,8 +3531,8 @@
       <c r="C14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="101"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="32" t="s">
         <v>45</v>
       </c>
@@ -3464,8 +3544,8 @@
       <c r="C15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="101"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="32" t="s">
         <v>48</v>
       </c>
@@ -3477,8 +3557,8 @@
       <c r="C16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="101"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="42" t="s">
         <v>51</v>
       </c>
@@ -3491,8 +3571,8 @@
       <c r="C17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="42" t="s">
         <v>54</v>
       </c>
@@ -3505,8 +3585,8 @@
       <c r="C18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="101"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="42" t="s">
         <v>57</v>
       </c>
@@ -3519,8 +3599,8 @@
       <c r="C19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="101"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3531,8 +3611,8 @@
       <c r="C20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="101"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3542,14 +3622,14 @@
       <c r="C21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="101"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="101"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="102"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
@@ -3558,8 +3638,8 @@
       <c r="C23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="102"/>
       <c r="F23" s="42" t="s">
         <v>65</v>
       </c>
@@ -3572,8 +3652,8 @@
       <c r="C24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="101"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
@@ -3585,8 +3665,8 @@
       <c r="C25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="101"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="42" t="s">
         <v>71</v>
       </c>
@@ -3599,8 +3679,8 @@
       <c r="C26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="42" t="s">
         <v>74</v>
       </c>
@@ -3615,7 +3695,7 @@
       <c r="D27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="101"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="42" t="s">
         <v>77</v>
       </c>
@@ -3628,8 +3708,8 @@
       <c r="C28" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="101"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,8 +3720,8 @@
       <c r="C29" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="101"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="42" t="s">
         <v>82</v>
       </c>
@@ -3654,8 +3734,8 @@
       <c r="C30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="101"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3666,8 +3746,8 @@
       <c r="C31" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="101"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="102"/>
       <c r="F31" s="42" t="s">
         <v>86</v>
       </c>
@@ -3680,8 +3760,8 @@
       <c r="C32" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="101"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,8 +3772,8 @@
       <c r="C33" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="101"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,8 +3784,8 @@
       <c r="C34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="101"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,8 +3796,8 @@
       <c r="C35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="101"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,15 +3807,15 @@
       <c r="C36" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="101"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="101"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,8 +3825,8 @@
       <c r="C38" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="101"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="102"/>
       <c r="F38" s="42" t="s">
         <v>98</v>
       </c>
@@ -3758,8 +3838,8 @@
       <c r="C39" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="101"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="102"/>
       <c r="F39" s="42" t="s">
         <v>100</v>
       </c>
@@ -3775,7 +3855,7 @@
       <c r="D40" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="101"/>
+      <c r="E40" s="102"/>
       <c r="F40" s="42" t="s">
         <v>103</v>
       </c>
@@ -3790,7 +3870,7 @@
       <c r="D41" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="101"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="42" t="s">
         <v>105</v>
       </c>
@@ -3806,7 +3886,7 @@
       <c r="D42" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="101"/>
+      <c r="E42" s="102"/>
       <c r="F42" s="42" t="s">
         <v>108</v>
       </c>
@@ -3818,8 +3898,8 @@
       <c r="C43" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="101"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="102"/>
       <c r="F43" s="42" t="s">
         <v>110</v>
       </c>
@@ -3831,8 +3911,8 @@
       <c r="C44" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="101"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="102"/>
       <c r="F44" s="42" t="s">
         <v>113</v>
       </c>
@@ -3844,15 +3924,15 @@
       <c r="C45" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="101"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="39"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="101"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="102"/>
       <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,8 +3942,8 @@
       <c r="C47" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="101"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="102"/>
       <c r="F47" s="42" t="s">
         <v>118</v>
       </c>
@@ -3875,14 +3955,14 @@
       <c r="C48" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="101"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="102"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="52"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="101"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="102"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
@@ -3891,8 +3971,8 @@
       <c r="C50" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="101"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="102"/>
       <c r="F50" s="42" t="s">
         <v>123</v>
       </c>
@@ -3904,8 +3984,8 @@
       <c r="C51" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="101"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="102"/>
       <c r="F51" s="42" t="s">
         <v>126</v>
       </c>
@@ -3917,8 +3997,8 @@
       <c r="C52" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="101"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="102"/>
       <c r="F52" s="42" t="s">
         <v>129</v>
       </c>
@@ -3930,8 +4010,8 @@
       <c r="C53" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="101"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="102"/>
       <c r="F53" s="42" t="s">
         <v>132</v>
       </c>
@@ -3943,8 +4023,8 @@
       <c r="C54" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="106"/>
-      <c r="E54" s="101"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="42" t="s">
         <v>135</v>
       </c>
@@ -3956,8 +4036,8 @@
       <c r="C55" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="101"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="42" t="s">
         <v>138</v>
       </c>
@@ -3969,8 +4049,8 @@
       <c r="C56" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="106"/>
-      <c r="E56" s="101"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="102"/>
       <c r="F56" s="42" t="s">
         <v>141</v>
       </c>
@@ -3978,8 +4058,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="39"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="101"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="102"/>
       <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3990,8 +4070,8 @@
       <c r="C58" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="106"/>
-      <c r="E58" s="101"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="102"/>
       <c r="F58" s="42" t="s">
         <v>143</v>
       </c>
@@ -4004,8 +4084,8 @@
       <c r="C59" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="106"/>
-      <c r="E59" s="101"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="102"/>
       <c r="F59" s="42" t="s">
         <v>146</v>
       </c>
@@ -4018,8 +4098,8 @@
       <c r="C60" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="106"/>
-      <c r="E60" s="101"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="42" t="s">
         <v>149</v>
       </c>
@@ -4032,8 +4112,8 @@
       <c r="C61" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="106"/>
-      <c r="E61" s="101"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="42" t="s">
         <v>152</v>
       </c>
@@ -4046,8 +4126,8 @@
       <c r="C62" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="106"/>
-      <c r="E62" s="101"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="102"/>
       <c r="F62" s="42" t="s">
         <v>152</v>
       </c>
@@ -4060,8 +4140,8 @@
       <c r="C63" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="106"/>
-      <c r="E63" s="101"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="102"/>
       <c r="F63" s="42" t="s">
         <v>157</v>
       </c>
@@ -4074,8 +4154,8 @@
       <c r="C64" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="106"/>
-      <c r="E64" s="101"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="42" t="s">
         <v>159</v>
       </c>
@@ -4088,8 +4168,8 @@
       <c r="C65" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="106"/>
-      <c r="E65" s="101"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="102"/>
       <c r="F65" s="42" t="s">
         <v>162</v>
       </c>
@@ -4102,8 +4182,8 @@
       <c r="C66" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="106"/>
-      <c r="E66" s="101"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="42" t="s">
         <v>165</v>
       </c>
@@ -4116,8 +4196,8 @@
       <c r="C67" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="106"/>
-      <c r="E67" s="101"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="42" t="s">
         <v>168</v>
       </c>
@@ -4129,8 +4209,8 @@
       <c r="C68" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="106"/>
-      <c r="E68" s="101"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="102"/>
       <c r="F68" s="42" t="s">
         <v>171</v>
       </c>
@@ -5086,7 +5166,7 @@
       <c r="F160" s="42"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="107" t="s">
+      <c r="A162" s="108" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="19" t="s">
@@ -5106,7 +5186,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="108"/>
+      <c r="A163" s="109"/>
       <c r="B163" s="30" t="s">
         <v>251</v>
       </c>
@@ -5120,7 +5200,7 @@
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="108"/>
+      <c r="A164" s="109"/>
       <c r="B164" s="39" t="s">
         <v>254</v>
       </c>
@@ -5134,7 +5214,7 @@
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="108"/>
+      <c r="A165" s="109"/>
       <c r="B165" s="30" t="s">
         <v>256</v>
       </c>
@@ -5148,7 +5228,7 @@
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="108"/>
+      <c r="A166" s="109"/>
       <c r="B166" s="30" t="s">
         <v>258</v>
       </c>
